--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/VERMONT_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/VERMONT_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACACOYAGUA</t>
+          <t>Acacoyagua</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>ALTAMIRANO</t>
+          <t>Altamirano</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>COPAINALÁ</t>
+          <t>Copainalá</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>MARAVILLA TENEJAPA</t>
+          <t>Maravilla Tenejapa</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>SALTO DE AGUA</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>TEOPISCA</t>
+          <t>Teopisca</t>
         </is>
       </c>
       <c r="C11">
@@ -517,7 +517,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C12">
@@ -530,12 +530,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C13">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C14">
@@ -561,12 +561,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C15">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C16">
@@ -592,12 +592,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C18">
@@ -623,12 +623,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C19">
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C20">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C21">
@@ -667,12 +667,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
+          <t>Atlixtac</t>
         </is>
       </c>
       <c r="C22">
@@ -685,7 +685,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C23">
@@ -698,7 +698,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C24">
@@ -711,12 +711,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LA MISIÓN</t>
+          <t>La Misión</t>
         </is>
       </c>
       <c r="C25">
@@ -729,7 +729,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C26">
@@ -742,12 +742,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS HUAXPALTEPEC</t>
+          <t>San Andrés Huaxpaltepec</t>
         </is>
       </c>
       <c r="C27">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAN ANTONINO MONTE VERDE</t>
+          <t>San Antonino Monte Verde</t>
         </is>
       </c>
       <c r="C28">
@@ -773,7 +773,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 22 -</t>
+          <t>San Pedro Mixtepec -Dto. 22 -</t>
         </is>
       </c>
       <c r="C29">
@@ -786,7 +786,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C30">
@@ -799,12 +799,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HUAQUECHULA</t>
+          <t>Huaquechula</t>
         </is>
       </c>
       <c r="C31">
@@ -817,7 +817,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C32">
@@ -830,7 +830,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>Teziutlán</t>
         </is>
       </c>
       <c r="C33">
@@ -843,7 +843,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C34">
@@ -856,7 +856,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>XIUTETELCO</t>
+          <t>Xiutetelco</t>
         </is>
       </c>
       <c r="C35">
@@ -869,7 +869,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C36">
@@ -882,12 +882,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C37">
@@ -900,7 +900,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C38">
@@ -913,12 +913,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C39">
@@ -931,7 +931,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C40">
@@ -944,12 +944,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TIERRA NUEVA</t>
+          <t>Tierra Nueva</t>
         </is>
       </c>
       <c r="C41">
@@ -962,7 +962,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>XILITLA</t>
+          <t>Xilitla</t>
         </is>
       </c>
       <c r="C42">
@@ -975,7 +975,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C43">
@@ -988,12 +988,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BALANCÁN</t>
+          <t>Balancán</t>
         </is>
       </c>
       <c r="C44">
@@ -1006,7 +1006,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C45">
@@ -1019,7 +1019,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>COMALCALCO</t>
+          <t>Comalcalco</t>
         </is>
       </c>
       <c r="C46">
@@ -1032,7 +1032,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C47">
@@ -1045,7 +1045,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C48">
@@ -1058,7 +1058,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C49">
@@ -1071,12 +1071,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C50">
@@ -1089,7 +1089,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C51">
@@ -1102,12 +1102,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
+          <t>Altotonga</t>
         </is>
       </c>
       <c r="C52">
@@ -1120,7 +1120,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>ATZALAN</t>
+          <t>Atzalan</t>
         </is>
       </c>
       <c r="C53">
@@ -1133,7 +1133,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>HUAYACOCOTLA</t>
+          <t>Huayacocotla</t>
         </is>
       </c>
       <c r="C54">
@@ -1146,7 +1146,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C55">
@@ -1159,7 +1159,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C56">
@@ -1172,7 +1172,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C57">
@@ -1185,7 +1185,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>NARANJOS AMATLÁN</t>
+          <t>Naranjos Amatlán</t>
         </is>
       </c>
       <c r="C58">
@@ -1198,7 +1198,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>TLACOTALPAN</t>
+          <t>Tlacotalpan</t>
         </is>
       </c>
       <c r="C59">
@@ -1211,7 +1211,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C60">
@@ -1224,7 +1224,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>TLAQUILPA</t>
+          <t>Tlaquilpa</t>
         </is>
       </c>
       <c r="C61">
@@ -1237,7 +1237,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C62">
@@ -1250,7 +1250,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C63">
@@ -1258,41 +1258,6 @@
       </c>
       <c r="D63">
         <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/VERMONT_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/VERMONT_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Altamirano</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Copainalá</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Maravilla Tenejapa</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -489,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -502,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -515,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -546,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>León</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec -Dto. 22 -</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -960,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -973,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1004,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -1017,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -1030,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -1043,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -1056,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1087,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1118,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -1131,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -1144,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -1157,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -1170,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -1183,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Naranjos Amatlán</t>
@@ -1196,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tlacotalpan</t>
@@ -1209,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -1222,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tlaquilpa</t>
@@ -1235,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
